--- a/원신 스탯계산기_수정본.xlsx
+++ b/원신 스탯계산기_수정본.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dohum\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9551625-3560-4795-9461-10CF4107838E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D997D814-CA8F-4454-9F8F-2D5031FA6CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계산기" sheetId="1" r:id="rId1"/>
@@ -423,10 +423,10 @@
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -465,11 +465,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="22">
@@ -772,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -977,22 +972,25 @@
     <xf numFmtId="176" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,7 +1002,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1022,13 +1038,88 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1037,100 +1128,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,15 +1269,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>223520</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>195580</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>599440</xdr:colOff>
+          <xdr:colOff>601980</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>20320</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1289,7 +1287,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2835F08-C95B-4442-9148-718487ABC81C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1340,13 +1338,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>297180</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>17780</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1356,7 +1354,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEDE7CC-6BBE-4799-A1D3-8A8D2A778FE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,15 +1403,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>223520</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>195580</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>535940</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>10160</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1423,7 +1421,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4073B2E-4FC5-49F0-99BD-DAAB755E83D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1474,7 +1472,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -1490,7 +1488,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6174A91B-8E0F-431B-B42B-84CCB35F802C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1547,7 +1545,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>548640</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>20320</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1557,7 +1555,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03884D2C-928E-4CD8-95FD-D97ACE949697}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1624,7 +1622,7 @@
         <xdr:cNvPr id="4097" name="AutoShape 1" descr="viewimage.php?id=22b3c32eecdc28b461b5d3b602&amp;no=24b0d769e1d32ca73dec82fa11d02831d5ca5516da218d33b13f2460ba1c5b2a9091b2854ae0f463d63a5c80a7116cba615613de4ebb3da7678890c5913f1f45831aea9d7b7b4609108a5ce1d58ea2a2159b633ae118b66a0ed5df9ebdb3d43c434a8793c740b37f4924">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1673,7 @@
         <xdr:cNvPr id="4098" name="AutoShape 2" descr="viewimage.php?id=22b3c32eecdc28b461b5d3b602&amp;no=24b0d769e1d32ca73dec82fa11d02831d5ca5516da218d33b13f2460ba1c5b2a9091b2854ae0f463d63a5c80a7116cba615613de4ebb3da7678890c5913f1f45831aea9d7b7b4609108a5ce1d58ea2a2159b633ae118b66a0ed5df9ebdb3d43c434a8793c740b37f4924">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1724,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1774,7 @@
         <xdr:cNvPr id="3078" name="Object 6" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000060C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,15 +1835,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>210095</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>198119</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>4355</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1855,7 +1853,7 @@
                   <a14:compatExt spid="_x0000_s3087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2346D03-BD0D-4765-BD2E-F14618935843}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1904,15 +1902,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>264523</xdr:colOff>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>209006</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>576943</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>18506</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1922,7 +1920,7 @@
                   <a14:compatExt spid="_x0000_s3089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3415F27C-C439-4DEC-94DC-0EF05C4DA7FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000110C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1971,13 +1969,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>187234</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>495299</xdr:colOff>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -1989,7 +1987,7 @@
                   <a14:compatExt spid="_x0000_s3090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DD75FA-B1C9-4322-BEEE-B959AD590144}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000120C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2038,15 +2036,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>278674</xdr:colOff>
+          <xdr:colOff>281940</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>201387</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>591094</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>18506</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2056,7 +2054,7 @@
                   <a14:compatExt spid="_x0000_s3091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC882032-C53F-4820-AC9D-BCC7E9B5D4C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000130C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2105,15 +2103,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>308066</xdr:colOff>
+          <xdr:colOff>304800</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>194855</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>620486</xdr:colOff>
+          <xdr:colOff>617220</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>11974</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2123,7 +2121,7 @@
                   <a14:compatExt spid="_x0000_s3092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D336BD13-7863-415F-8433-17FD234F7FF3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000140C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2190,7 +2188,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1" descr="viewimage.php?id=22b3c32eecdc28b461b5d3b602&amp;no=24b0d769e1d32ca73dec82fa11d02831d5ca5516da218d33b13f2460ba1c5b2a9091b2854ae0f463d63a5c80a7116cba615613de4ebb3da7678890c5913f1f45831aea9d7b7b4609108a5ce1d58ea2a2159b633ae118b66a0ed5df9ebdb3d43c434a8793c740b37f4924">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4060430E-A8BA-42E7-81E4-0B6D56DD484B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2239,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2" descr="viewimage.php?id=22b3c32eecdc28b461b5d3b602&amp;no=24b0d769e1d32ca73dec82fa11d02831d5ca5516da218d33b13f2460ba1c5b2a9091b2854ae0f463d63a5c80a7116cba615613de4ebb3da7678890c5913f1f45831aea9d7b7b4609108a5ce1d58ea2a2159b633ae118b66a0ed5df9ebdb3d43c434a8793c740b37f4924">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71B441B-7A40-4ED1-B2A3-55EE5C7D2B59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2290,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916DF99F-BF55-43C2-8A8A-838913272995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,11 +2615,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="225" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="225" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.796875" style="1" bestFit="1" customWidth="1"/>
@@ -2636,8 +2634,8 @@
     <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2650,7 +2648,7 @@
         <v>106</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="79" t="s">
         <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -2672,8 +2670,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="71"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="79"/>
       <c r="B2" s="4">
         <v>15185</v>
       </c>
@@ -2684,7 +2682,7 @@
         <v>729</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4">
         <v>510</v>
       </c>
@@ -2698,19 +2696,19 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2720,8 +2718,8 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="79" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2730,32 +2728,32 @@
       <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="71"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="79"/>
       <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="72" t="s">
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="84" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -2773,7 +2771,7 @@
       <c r="F9" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="82" t="s">
         <v>79</v>
       </c>
       <c r="M9" s="49" t="s">
@@ -2783,8 +2781,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="72"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="84"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2796,7 +2794,7 @@
       <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="70"/>
+      <c r="L10" s="83"/>
       <c r="M10" s="4" t="str">
         <f>IF(M9='성유물 부옵수'!A17,'성유물 부옵수'!B17,IF(M9='성유물 부옵수'!A18,'성유물 부옵수'!B18,IF(M9='성유물 부옵수'!A19,'성유물 부옵수'!B19,IF(M9='성유물 부옵수'!A20,'성유물 부옵수'!B20,IF(M9='성유물 부옵수'!A21,'성유물 부옵수'!B21,IF(M9='성유물 부옵수'!A22,'성유물 부옵수'!B22,IF(M9='성유물 부옵수'!A24,'성유물 부옵수'!B24,IF(M9='성유물 부옵수'!A25,'성유물 부옵수'!B25,IF(M9='성유물 부옵수'!A26,'성유물 부옵수'!B26,)))))))))</f>
         <v>20%</v>
@@ -2806,14 +2804,14 @@
         <v>20%</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="68" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="68"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="71" t="s">
+      <c r="C11" s="81"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="79" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2846,15 +2844,15 @@
       <c r="K13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="76" t="s">
+      <c r="L13" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="73" t="s">
+      <c r="M13" s="78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="79"/>
       <c r="B14" s="4">
         <f>계산식!B11+계산식!B13</f>
         <v>19558.28</v>
@@ -2895,11 +2893,11 @@
         <f>계산식!K13</f>
         <v>0</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="71" t="s">
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2933,8 +2931,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="71"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="79"/>
       <c r="B16" s="4">
         <f>계산식!B11+계산식!B15</f>
         <v>61708.565000000002</v>
@@ -2976,19 +2974,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="71"/>
-      <c r="B20" s="77"/>
-    </row>
-    <row r="21" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
@@ -2996,7 +2994,7 @@
         <v>74444</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="50" t="s">
         <v>103</v>
       </c>
@@ -3012,8 +3010,8 @@
         <v>83.87%</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="74" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="75" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="58" t="s">
@@ -3031,13 +3029,13 @@
       <c r="F24" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="75" t="s">
+      <c r="G24" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="75"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="74"/>
+      <c r="H24" s="76"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="75"/>
       <c r="B25" s="56">
         <f>IF($B$19='성유물 부옵수'!$B$14,$B$23/'성유물 부옵수'!C11,IF($B$19='성유물 부옵수'!$C$14,$B$23/'성유물 부옵수'!C12,IF($B$19='성유물 부옵수'!$D$14,$B$23/'성유물 부옵수'!C9,IF($B$19='성유물 부옵수'!$E$14,$B$23/'성유물 부옵수'!C10,IF($B$19='성유물 부옵수'!$F$14,'성유물 부옵수'!C42/'성유물 부옵수'!C32,IF($B$19='성유물 부옵수'!$G$14,'성유물 부옵수'!C42/'성유물 부옵수'!C34,IF($B$19='성유물 부옵수'!$H$14,'성유물 부옵수'!C42/'성유물 부옵수'!C36)))))))</f>
         <v>16.091674229221709</v>
@@ -3055,7 +3053,7 @@
         <v>10.046705573785378</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="50" t="s">
         <v>72</v>
       </c>
@@ -3065,12 +3063,12 @@
       <c r="C26" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="75"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="E26" s="76"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
@@ -3079,6 +3077,15 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="D26:E26"/>
@@ -3088,15 +3095,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -3297,7 +3295,7 @@
       <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="8.796875" style="1"/>
     <col min="5" max="5" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -3309,7 +3307,7 @@
     <col min="21" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4780</v>
       </c>
@@ -3424,7 +3422,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -3450,7 +3448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
@@ -3461,7 +3459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3472,7 +3470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
@@ -3482,54 +3480,54 @@
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="E8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="79" t="s">
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="86" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3541,16 +3539,16 @@
       <c r="D10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="79"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="86"/>
       <c r="B11" s="4">
         <f>계산기!B2</f>
         <v>15185</v>
@@ -3563,16 +3561,16 @@
         <f>계산기!D2</f>
         <v>729</v>
       </c>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="82" t="s">
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="89" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3605,16 +3603,16 @@
       <c r="K12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="81"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="88"/>
       <c r="B13" s="4">
         <f>IF(계산기!B6=K1,B11*E24)+IF(계산기!C6=K1,B11*E26)</f>
         <v>4373.28</v>
@@ -3656,8 +3654,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="80" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="87" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3691,8 +3689,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="81"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="88"/>
       <c r="B15" s="4">
         <f>B13+IF(C19=K1,B11*K2)+IF(D19=K1,B11*K2)+IF(E19=K1,B11*K2)+IF(F19=TRUE,B11*0.25)+IF(A19=TRUE,A2)+IF(계산기!M9="체%",B11*'성유물 부옵수'!C17)+IF(계산기!N9="체%",B11*'성유물 부옵수'!C17)+IF(계산기!H1="체력",계산식!B11*계산기!H2/100)+IF(계산기!I1="체력",계산식!B11*계산기!I2/100)</f>
         <v>46523.565000000002</v>
@@ -3734,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3747,7 +3745,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="b">
         <v>1</v>
       </c>
@@ -3802,17 +3800,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>98</v>
       </c>
@@ -3827,8 +3825,8 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="77" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="80" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3865,8 +3863,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="77"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="80"/>
       <c r="C24" s="4">
         <v>0.24</v>
       </c>
@@ -3898,8 +3896,8 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="77" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="80" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3936,8 +3934,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="77"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="80"/>
       <c r="C26" s="7">
         <v>0.28799999999999998</v>
       </c>
@@ -3969,13 +3967,13 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="68" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4002,7 +4000,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
@@ -4011,47 +4009,47 @@
     <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="106" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="43">
         <v>209</v>
       </c>
@@ -4069,11 +4067,11 @@
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="106" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="43">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -4103,11 +4101,11 @@
         <v>5.8%</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="104" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="42">
         <v>14</v>
       </c>
@@ -4125,11 +4123,11 @@
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="104" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="43">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -4159,11 +4157,11 @@
         <v>5.8%</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="42">
         <v>16</v>
       </c>
@@ -4181,11 +4179,11 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="105" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="43">
         <v>5.1000000000000004E-2</v>
       </c>
@@ -4215,11 +4213,11 @@
         <v>7.3%</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="107" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="107"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="42">
         <v>4.5</v>
       </c>
@@ -4249,11 +4247,11 @@
         <v>6.5%</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="108" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="108"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="42">
         <v>16</v>
       </c>
@@ -4271,11 +4269,11 @@
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="109" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="109"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="42">
         <v>2.7</v>
       </c>
@@ -4305,11 +4303,11 @@
         <v>3.9%</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="109" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="42">
         <f>C11*2</f>
         <v>5.4</v>
@@ -4343,7 +4341,7 @@
         <v>7.8%</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="41" t="s">
         <v>66</v>
       </c>
@@ -4375,7 +4373,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="59" t="s">
         <v>111</v>
       </c>
@@ -4410,7 +4408,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="42" t="s">
         <v>66</v>
       </c>
@@ -4421,7 +4419,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="42" t="s">
         <v>36</v>
       </c>
@@ -4433,7 +4431,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="42" t="s">
         <v>35</v>
       </c>
@@ -4445,7 +4443,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="42" t="s">
         <v>37</v>
       </c>
@@ -4457,7 +4455,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>33</v>
       </c>
@@ -4469,7 +4467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="42" t="s">
         <v>34</v>
       </c>
@@ -4481,7 +4479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="42" t="s">
         <v>38</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="48" t="s">
         <v>39</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="42" t="s">
         <v>83</v>
       </c>
@@ -4517,7 +4515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="42" t="s">
         <v>97</v>
       </c>
@@ -4529,7 +4527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="42" t="s">
         <v>96</v>
       </c>
@@ -4541,37 +4539,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="93" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="88" t="s">
+      <c r="B29" s="92"/>
+      <c r="C29" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F29" s="90" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="106" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="106"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="52">
         <v>4.0999999999999995E-2</v>
       </c>
@@ -4585,11 +4583,11 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="106" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="106"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="18">
         <f>계산식!B11*C4</f>
         <v>622.58500000000004</v>
@@ -4607,11 +4605,11 @@
         <v>880.73000000000013</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="104" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="52">
         <v>4.0999999999999995E-2</v>
       </c>
@@ -4625,11 +4623,11 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="104" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="104"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="18">
         <f>계산식!$C$11*C6</f>
         <v>30.34</v>
@@ -4647,11 +4645,11 @@
         <v>42.920000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="105" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="105"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="52">
         <v>5.1000000000000004E-2</v>
       </c>
@@ -4665,11 +4663,11 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="105" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="18">
         <f>계산식!$D$11*C8</f>
         <v>37.179000000000002</v>
@@ -4687,39 +4685,39 @@
         <v>53.216999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="93" t="str">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="92" t="str">
         <f>"깡옵"&amp;계산기!B26&amp;"개"</f>
         <v>깡옵13개</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="88" t="s">
+      <c r="B39" s="92"/>
+      <c r="C39" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="88" t="s">
+      <c r="F39" s="90" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="106" t="str">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="91" t="str">
         <f>"깡 "&amp;계산기!B19</f>
         <v>깡 체력</v>
       </c>
-      <c r="B41" s="106"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="54">
         <f>IF(계산기!$B$19=$F$14,계산기!$B$26*C3,IF(계산기!$B$19=$G$14,계산기!$B$26*C5,IF(계산기!$B$19=$H$14,계산기!$B$26*C7)))</f>
         <v>2717</v>
@@ -4737,12 +4735,12 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="106" t="str">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="91" t="str">
         <f>"뺀 "&amp;계산기!B19</f>
         <v>뺀 체력</v>
       </c>
-      <c r="B42" s="106"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="55">
         <f>계산기!$B$23-C41</f>
         <v>10018.434999999998</v>
@@ -4760,7 +4758,7 @@
         <v>8848.4349999999977</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -4768,7 +4766,7 @@
       <c r="E43" s="60"/>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -4776,7 +4774,7 @@
       <c r="E44" s="60"/>
       <c r="F44" s="60"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="60"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -4784,7 +4782,7 @@
       <c r="E45" s="60"/>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="60"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -4792,7 +4790,7 @@
       <c r="E46" s="60"/>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="60"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -4800,7 +4798,7 @@
       <c r="E47" s="60"/>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="60"/>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -4808,7 +4806,7 @@
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="60"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -4816,7 +4814,7 @@
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="60"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -4826,19 +4824,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:J2"/>
@@ -4855,11 +4845,19 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -4873,11 +4871,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="225" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="225" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.09765625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.69921875" style="17" bestFit="1" customWidth="1"/>
@@ -4898,8 +4896,8 @@
     <col min="22" max="16384" width="8.796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="92" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -4926,15 +4924,15 @@
       <c r="L1" s="64"/>
       <c r="M1" s="64"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="93"/>
-      <c r="B2" s="113">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="92"/>
+      <c r="B2" s="70">
         <v>15185</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="70">
         <v>436</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="70">
         <v>729</v>
       </c>
       <c r="E2" s="13"/>
@@ -4946,7 +4944,7 @@
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -4956,7 +4954,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4966,8 +4964,8 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="93" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="92" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -4976,30 +4974,30 @@
       <c r="C5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="93"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="92"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="103" t="s">
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="100" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -5019,7 +5017,7 @@
       </c>
       <c r="J9" s="64"/>
       <c r="K9" s="64"/>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="82" t="s">
         <v>79</v>
       </c>
       <c r="M9" s="61" t="s">
@@ -5029,8 +5027,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="103"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="100"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
@@ -5044,7 +5042,7 @@
       </c>
       <c r="J10" s="64"/>
       <c r="K10" s="64"/>
-      <c r="L10" s="70"/>
+      <c r="L10" s="83"/>
       <c r="M10" s="62" t="str">
         <f>IF(M9='닐루성유물 부옵수'!A17,'닐루성유물 부옵수'!B17,IF(M9='닐루성유물 부옵수'!A18,'닐루성유물 부옵수'!B18,IF(M9='닐루성유물 부옵수'!A19,'닐루성유물 부옵수'!B19,IF(M9='닐루성유물 부옵수'!A20,'닐루성유물 부옵수'!B20,IF(M9='닐루성유물 부옵수'!A21,'닐루성유물 부옵수'!B21,IF(M9='닐루성유물 부옵수'!A22,'닐루성유물 부옵수'!B22,IF(M9='닐루성유물 부옵수'!A24,'닐루성유물 부옵수'!B24,IF(M9='닐루성유물 부옵수'!A25,'닐루성유물 부옵수'!B25,IF(M9='닐루성유물 부옵수'!A26,'닐루성유물 부옵수'!B26,)))))))))</f>
         <v>20%</v>
@@ -5054,166 +5052,166 @@
         <v>20%</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="114" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="115" t="s">
+      <c r="G13" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="115" t="s">
+      <c r="H13" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="115" t="s">
+      <c r="J13" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="71" t="s">
         <v>96</v>
       </c>
       <c r="M13" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="114"/>
-      <c r="B14" s="112">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="98"/>
+      <c r="B14" s="69">
         <f>B2+닐루계산식!B13</f>
         <v>19558.28</v>
       </c>
-      <c r="C14" s="112">
+      <c r="C14" s="69">
         <f>C2+닐루계산식!C13</f>
         <v>436</v>
       </c>
-      <c r="D14" s="112">
+      <c r="D14" s="69">
         <f>D2+닐루계산식!D13</f>
         <v>729</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="69">
         <f>E2+닐루계산식!E13</f>
         <v>0</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="69">
         <f>100+F2+닐루계산식!F13</f>
         <v>100</v>
       </c>
-      <c r="G14" s="112">
+      <c r="G14" s="69">
         <f>5+G2+닐루계산식!G13</f>
         <v>5</v>
       </c>
-      <c r="H14" s="112">
+      <c r="H14" s="69">
         <f>50+H2+닐루계산식!H13</f>
         <v>50</v>
       </c>
-      <c r="I14" s="112">
+      <c r="I14" s="69">
         <f>I2+닐루계산식!I13</f>
         <v>0</v>
       </c>
-      <c r="J14" s="112">
+      <c r="J14" s="69">
         <f>J2+닐루계산식!J13</f>
         <v>0</v>
       </c>
-      <c r="K14" s="112">
+      <c r="K14" s="69">
         <f>K2+닐루계산식!K13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="114" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="115" t="s">
+      <c r="G15" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="115" t="s">
+      <c r="H15" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="115" t="s">
+      <c r="K15" s="71" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="114"/>
-      <c r="B16" s="112">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="98"/>
+      <c r="B16" s="69">
         <f>B2+닐루계산식!B15</f>
         <v>55437.16</v>
       </c>
-      <c r="C16" s="112">
+      <c r="C16" s="69">
         <f>C2+닐루계산식!C15</f>
         <v>747</v>
       </c>
-      <c r="D16" s="112">
+      <c r="D16" s="69">
         <f>D2+닐루계산식!D15</f>
         <v>729</v>
       </c>
-      <c r="E16" s="112">
+      <c r="E16" s="69">
         <f>닐루계산식!E15</f>
         <v>50</v>
       </c>
-      <c r="F16" s="112">
+      <c r="F16" s="69">
         <f>닐루계산식!F15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="112">
+      <c r="G16" s="69">
         <f>닐루계산식!G15</f>
         <v>0</v>
       </c>
-      <c r="H16" s="112">
+      <c r="H16" s="69">
         <f>닐루계산식!H15</f>
         <v>0</v>
       </c>
-      <c r="I16" s="112">
+      <c r="I16" s="69">
         <f>닐루계산식!I15</f>
         <v>0</v>
       </c>
-      <c r="J16" s="112">
+      <c r="J16" s="69">
         <f>닐루계산식!J15</f>
         <v>0</v>
       </c>
-      <c r="K16" s="112">
+      <c r="K16" s="69">
         <f>닐루계산식!K15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -5225,44 +5223,44 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:23">
-      <c r="J18" s="92" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="J18" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92" t="s">
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92" t="s">
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="91" t="s">
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="21"/>
       <c r="E19" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="20" t="s">
         <v>54</v>
       </c>
@@ -5303,389 +5301,389 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="18">
-        <v>0.88200000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="C20" s="18" t="str">
         <f>B20*100&amp;"%"</f>
-        <v>88.2%</v>
+        <v>86.2%</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="18">
         <f>B16+B2*B20</f>
-        <v>68830.33</v>
-      </c>
-      <c r="F20" s="88">
+        <v>68526.63</v>
+      </c>
+      <c r="F20" s="90">
         <f>$A$29-E20</f>
-        <v>5613.6699999999983</v>
-      </c>
-      <c r="G20" s="88"/>
+        <v>5917.3699999999953</v>
+      </c>
+      <c r="G20" s="90"/>
       <c r="H20" s="18">
         <f>F20/($B$2/100)</f>
-        <v>36.968521567336175</v>
+        <v>38.968521567336161</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="18">
         <f>($F$20-(C32*19))/($B$2/100)</f>
-        <v>10.817714850181089</v>
+        <v>12.817714850181069</v>
       </c>
       <c r="K20" s="22">
         <f>($F$20-(D32*19))/($B$2/100)</f>
-        <v>5.1871583799802323</v>
+        <v>7.1871583799802137</v>
       </c>
       <c r="L20" s="22">
         <f>($F$20-(E32*19))/($B$2/100)</f>
-        <v>-0.44339809022062399</v>
+        <v>1.5566019097793569</v>
       </c>
       <c r="M20" s="18">
         <f>($F$20-(C32*16))/($B$2/100)</f>
-        <v>14.94678959499505</v>
+        <v>16.946789594995032</v>
       </c>
       <c r="N20" s="22">
         <f>($F$20-(D32*16))/($B$2/100)</f>
-        <v>10.205268356931171</v>
+        <v>12.205268356931152</v>
       </c>
       <c r="O20" s="22">
         <f>($F$20-(E32*16))/($B$2/100)</f>
-        <v>5.4637471188672917</v>
+        <v>7.463747118867273</v>
       </c>
       <c r="P20" s="18">
         <f>($F$20-(C32*13))/($B$2/100)</f>
-        <v>19.075864339809012</v>
+        <v>21.075864339808991</v>
       </c>
       <c r="Q20" s="22">
         <f>($F$20-(D32*13))/($B$2/100)</f>
-        <v>15.22337833388211</v>
+        <v>17.223378333882092</v>
       </c>
       <c r="R20" s="22">
         <f>($F$20-(E32*13))/($B$2/100)</f>
-        <v>11.370892327955207</v>
+        <v>13.37089232795519</v>
       </c>
       <c r="S20" s="18">
         <f>($F$20-(C32*10))/($B$2/100)</f>
-        <v>23.204939084622971</v>
+        <v>25.204939084622954</v>
       </c>
       <c r="T20" s="22">
         <f>($F$20-(D32*10))/($B$2/100)</f>
-        <v>20.241488310833049</v>
+        <v>22.241488310833031</v>
       </c>
       <c r="U20" s="22">
         <f>($F$20-(E32*10))/($B$2/100)</f>
-        <v>17.278037537043122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>19.278037537043105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="18">
-        <v>0.93200000000000005</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="C21" s="18" t="str">
         <f t="shared" ref="C21:C24" si="0">B21*100&amp;"%"</f>
-        <v>93.2%</v>
+        <v>91.2%</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="18">
         <f t="shared" ref="E21:E24" si="1">$B$16+$B$2*B21</f>
-        <v>69589.58</v>
-      </c>
-      <c r="F21" s="88">
+        <v>69285.88</v>
+      </c>
+      <c r="F21" s="90">
         <f>$A$29-E21</f>
-        <v>4854.4199999999983</v>
-      </c>
-      <c r="G21" s="88"/>
+        <v>5158.1199999999953</v>
+      </c>
+      <c r="G21" s="90"/>
       <c r="H21" s="18">
         <f t="shared" ref="H21:H24" si="2">F21/($B$2/100)</f>
-        <v>31.968521567336175</v>
+        <v>33.968521567336161</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="18">
         <f>($F$21-(C32*19))/($B$2/100)</f>
-        <v>5.8177148501810887</v>
+        <v>7.8177148501810692</v>
       </c>
       <c r="K21" s="22">
         <f>($F$21-(D32*19))/($B$2/100)</f>
-        <v>0.18715837998023216</v>
+        <v>2.1871583799802132</v>
       </c>
       <c r="L21" s="22">
         <f>($F$21-(E32*19))/($B$2/100)</f>
-        <v>-5.443398090220624</v>
+        <v>-3.4433980902206431</v>
       </c>
       <c r="M21" s="18">
         <f>($F$21-(C32*16))/($B$2/100)</f>
-        <v>9.9467895949950496</v>
+        <v>11.94678959499503</v>
       </c>
       <c r="N21" s="22">
         <f>($F$21-(D32*16))/($B$2/100)</f>
-        <v>5.2052683569311711</v>
+        <v>7.2052683569311515</v>
       </c>
       <c r="O21" s="22">
         <f>($F$21-(E32*16))/($B$2/100)</f>
-        <v>0.46374711886729175</v>
+        <v>2.4637471188672726</v>
       </c>
       <c r="P21" s="18">
         <f>($F$21-(C32*13))/($B$2/100)</f>
-        <v>14.07586433980901</v>
+        <v>16.075864339808991</v>
       </c>
       <c r="Q21" s="22">
         <f>($F$21-(D32*13))/($B$2/100)</f>
-        <v>10.22337833388211</v>
+        <v>12.22337833388209</v>
       </c>
       <c r="R21" s="22">
         <f>($F$21-(E32*13))/($B$2/100)</f>
-        <v>6.3708923279552074</v>
+        <v>8.3708923279551879</v>
       </c>
       <c r="S21" s="18">
         <f>($F$21-(C32*10))/($B$2/100)</f>
-        <v>18.204939084622971</v>
+        <v>20.204939084622954</v>
       </c>
       <c r="T21" s="22">
         <f>($F$21-(D32*10))/($B$2/100)</f>
-        <v>15.241488310833049</v>
+        <v>17.241488310833027</v>
       </c>
       <c r="U21" s="22">
         <f>($F$21-(E32*10))/($B$2/100)</f>
-        <v>12.278037537043124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>14.278037537043105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="18">
-        <v>0.98199999999999998</v>
+      <c r="B22" s="68">
+        <v>0.96199999999999997</v>
       </c>
       <c r="C22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>98.2%</v>
+        <v>96.2%</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="18">
         <f t="shared" si="1"/>
-        <v>70348.83</v>
-      </c>
-      <c r="F22" s="88">
+        <v>70045.13</v>
+      </c>
+      <c r="F22" s="90">
         <f>$A$29-E22</f>
-        <v>4095.1699999999983</v>
-      </c>
-      <c r="G22" s="88"/>
+        <v>4398.8699999999953</v>
+      </c>
+      <c r="G22" s="90"/>
       <c r="H22" s="18">
         <f t="shared" si="2"/>
-        <v>26.968521567336175</v>
+        <v>28.968521567336158</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="18">
         <f>($F$22-(C32*19))/($B$2/100)</f>
-        <v>0.81771485018108825</v>
+        <v>2.8177148501810692</v>
       </c>
       <c r="K22" s="22">
         <f>($F$22-(D32*19))/($B$2/100)</f>
-        <v>-4.8128416200197677</v>
+        <v>-2.8128416200197872</v>
       </c>
       <c r="L22" s="22">
         <f>($F$22-(E32*19))/($B$2/100)</f>
-        <v>-10.443398090220624</v>
+        <v>-8.4433980902206436</v>
       </c>
       <c r="M22" s="18">
         <f>($F$22-(C32*16))/($B$2/100)</f>
-        <v>4.9467895949950496</v>
+        <v>6.9467895949950309</v>
       </c>
       <c r="N22" s="22">
         <f>($F$22-(D32*16))/($B$2/100)</f>
-        <v>0.2052683569311706</v>
+        <v>2.2052683569311515</v>
       </c>
       <c r="O22" s="22">
         <f>($F$22-(E32*16))/($B$2/100)</f>
-        <v>-4.5362528811327083</v>
+        <v>-2.5362528811327274</v>
       </c>
       <c r="P22" s="18">
         <f>($F$22-(C32*13))/($B$2/100)</f>
-        <v>9.0758643398090104</v>
+        <v>11.075864339808993</v>
       </c>
       <c r="Q22" s="22">
         <f>($F$22-(D32*13))/($B$2/100)</f>
-        <v>5.2233783338821089</v>
+        <v>7.2233783338820903</v>
       </c>
       <c r="R22" s="22">
         <f>($F$22-(E32*13))/($B$2/100)</f>
-        <v>1.3708923279552074</v>
+        <v>3.3708923279551883</v>
       </c>
       <c r="S22" s="18">
         <f>($F$22-(C32*10))/($B$2/100)</f>
-        <v>13.204939084622973</v>
+        <v>15.204939084622954</v>
       </c>
       <c r="T22" s="22">
         <f>($F$22-(D32*10))/($B$2/100)</f>
-        <v>10.241488310833049</v>
+        <v>12.241488310833029</v>
       </c>
       <c r="U22" s="22">
         <f>($F$22-(E32*10))/($B$2/100)</f>
-        <v>7.2780375370431232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>9.2780375370431045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="18">
-        <v>1.032</v>
+      <c r="B23" s="68">
+        <v>1.012</v>
       </c>
       <c r="C23" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>103.2%</v>
+        <v>101.2%</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="18">
         <f t="shared" si="1"/>
-        <v>71108.08</v>
-      </c>
-      <c r="F23" s="88">
+        <v>70804.38</v>
+      </c>
+      <c r="F23" s="90">
         <f>$A$29-E23</f>
-        <v>3335.9199999999983</v>
-      </c>
-      <c r="G23" s="88"/>
+        <v>3639.6199999999953</v>
+      </c>
+      <c r="G23" s="90"/>
       <c r="H23" s="18">
         <f t="shared" si="2"/>
-        <v>21.968521567336175</v>
+        <v>23.968521567336158</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="18">
         <f>($F$23-(C32*19))/($B$2/100)</f>
-        <v>-4.1822851498189122</v>
+        <v>-2.1822851498189308</v>
       </c>
       <c r="K23" s="22">
         <f>($F$23-(D32*19))/($B$2/100)</f>
-        <v>-9.8128416200197677</v>
+        <v>-7.8128416200197872</v>
       </c>
       <c r="L23" s="22">
         <f>($F$23-(E32*19))/($B$2/100)</f>
-        <v>-15.443398090220624</v>
+        <v>-13.443398090220644</v>
       </c>
       <c r="M23" s="18">
         <f>($F$23-(C32*16))/($B$2/100)</f>
-        <v>-5.3210405004950584E-2</v>
+        <v>1.9467895949950302</v>
       </c>
       <c r="N23" s="22">
         <f>($F$23-(D32*16))/($B$2/100)</f>
-        <v>-4.7947316430688298</v>
+        <v>-2.7947316430688485</v>
       </c>
       <c r="O23" s="22">
         <f>($F$23-(E32*16))/($B$2/100)</f>
-        <v>-9.5362528811327092</v>
+        <v>-7.5362528811327278</v>
       </c>
       <c r="P23" s="18">
         <f>($F$23-(C32*13))/($B$2/100)</f>
-        <v>4.0758643398090104</v>
+        <v>6.0758643398089918</v>
       </c>
       <c r="Q23" s="22">
         <f>($F$23-(D32*13))/($B$2/100)</f>
-        <v>0.22337833388210901</v>
+        <v>2.2233783338820898</v>
       </c>
       <c r="R23" s="22">
         <f>($F$23-(E32*13))/($B$2/100)</f>
-        <v>-3.6291076720447926</v>
+        <v>-1.6291076720448117</v>
       </c>
       <c r="S23" s="18">
         <f>($F$23-(C32*10))/($B$2/100)</f>
-        <v>8.2049390846229713</v>
+        <v>10.204939084622954</v>
       </c>
       <c r="T23" s="22">
         <f>($F$23-(D32*10))/($B$2/100)</f>
-        <v>5.2414883108330477</v>
+        <v>7.2414883108330281</v>
       </c>
       <c r="U23" s="22">
         <f>($F$23-(E32*10))/($B$2/100)</f>
-        <v>2.2780375370431232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>4.2780375370431045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="23">
-        <v>1.0820000000000001</v>
+      <c r="B24" s="68">
+        <v>1.0620000000000001</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>108.2%</v>
+        <v>106.2%</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="23">
         <f t="shared" si="1"/>
-        <v>71867.33</v>
-      </c>
-      <c r="F24" s="98">
+        <v>71563.63</v>
+      </c>
+      <c r="F24" s="111">
         <f>$A$29-E24</f>
-        <v>2576.6699999999983</v>
-      </c>
-      <c r="G24" s="98"/>
+        <v>2880.3699999999953</v>
+      </c>
+      <c r="G24" s="111"/>
       <c r="H24" s="23">
         <f t="shared" si="2"/>
-        <v>16.968521567336175</v>
+        <v>18.968521567336158</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="23">
         <f>($F$24-(C32*19))/($B$2/100)</f>
-        <v>-9.1822851498189113</v>
+        <v>-7.1822851498189308</v>
       </c>
       <c r="K24" s="24">
         <f>($F$24-(D32*19))/($B$2/100)</f>
-        <v>-14.812841620019768</v>
+        <v>-12.812841620019787</v>
       </c>
       <c r="L24" s="24">
         <f>($F$24-(E32*19))/($B$2/100)</f>
-        <v>-20.443398090220626</v>
+        <v>-18.443398090220644</v>
       </c>
       <c r="M24" s="23">
         <f>($F$24-(C32*16))/($B$2/100)</f>
-        <v>-5.0532104050049504</v>
+        <v>-3.05321040500497</v>
       </c>
       <c r="N24" s="24">
         <f>($F$24-(D32*16))/($B$2/100)</f>
-        <v>-9.7947316430688289</v>
+        <v>-7.7947316430688485</v>
       </c>
       <c r="O24" s="24">
         <f>($F$24-(E32*16))/($B$2/100)</f>
-        <v>-14.536252881132709</v>
+        <v>-12.536252881132729</v>
       </c>
       <c r="P24" s="23">
         <f>($F$24-(C32*13))/($B$2/100)</f>
-        <v>-0.92413566019098947</v>
+        <v>1.0758643398089915</v>
       </c>
       <c r="Q24" s="24">
         <f>($F$24-(D32*13))/($B$2/100)</f>
-        <v>-4.7766216661178911</v>
+        <v>-2.7766216661179102</v>
       </c>
       <c r="R24" s="24">
         <f>($F$24-(E32*13))/($B$2/100)</f>
-        <v>-8.6291076720447926</v>
+        <v>-6.6291076720448121</v>
       </c>
       <c r="S24" s="23">
         <f>($F$24-(C32*10))/($B$2/100)</f>
-        <v>3.2049390846229717</v>
+        <v>5.2049390846229526</v>
       </c>
       <c r="T24" s="24">
         <f>($F$24-(D32*10))/($B$2/100)</f>
-        <v>0.24148831083304745</v>
+        <v>2.2414883108330286</v>
       </c>
       <c r="U24" s="24">
         <f>($F$24-(E32*10))/($B$2/100)</f>
-        <v>-2.7219624629568768</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>-0.72196246295689603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
       <c r="H25" s="28"/>
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
@@ -5701,7 +5699,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="29"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="s">
         <v>53</v>
       </c>
@@ -5711,8 +5709,8 @@
       <c r="C26" s="102"/>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
@@ -5728,7 +5726,7 @@
       <c r="T26" s="33"/>
       <c r="U26" s="34"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
         <v>48</v>
       </c>
@@ -5744,11 +5742,11 @@
         <f>$B$16+B2*B27</f>
         <v>61708.565000000002</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="114">
         <f>$A$29-E27</f>
         <v>12735.434999999998</v>
       </c>
-      <c r="G27" s="110"/>
+      <c r="G27" s="115"/>
       <c r="H27" s="66">
         <f>F27/($B$2/100)</f>
         <v>83.868521567336174</v>
@@ -5803,75 +5801,75 @@
         <v>64.178037537043124</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="88" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A28" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="118" t="s">
+      <c r="I28" s="73" t="s">
         <v>73</v>
       </c>
       <c r="J28" s="18">
-        <f>J$27/($F$33*100)</f>
+        <f t="shared" ref="J28:U28" si="3">J$27/($F$33*100)</f>
         <v>14.077491426873435</v>
       </c>
       <c r="K28" s="18">
-        <f>K$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>12.704184970726883</v>
       </c>
       <c r="L28" s="18">
-        <f>L$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>11.330878514580334</v>
       </c>
       <c r="M28" s="18">
-        <f>M$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>15.084582828047569</v>
       </c>
       <c r="N28" s="18">
-        <f>N$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>13.928114233397844</v>
       </c>
       <c r="O28" s="18">
-        <f>O$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>12.771645638748117</v>
       </c>
       <c r="P28" s="18">
-        <f>P$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>16.091674229221706</v>
       </c>
       <c r="Q28" s="18">
-        <f>Q$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>15.152043496068805</v>
       </c>
       <c r="R28" s="18">
-        <f>R$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>14.212412762915902</v>
       </c>
       <c r="S28" s="18">
-        <f>S$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>17.098765630395842</v>
       </c>
       <c r="T28" s="18">
-        <f>T$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>16.375972758739763</v>
       </c>
       <c r="U28" s="18">
-        <f>U$27/($F$33*100)</f>
+        <f t="shared" si="3"/>
         <v>15.653179887083686</v>
       </c>
-      <c r="V28" s="83" t="s">
+      <c r="V28" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="W28" s="83"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="116">
+      <c r="W28" s="116"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A29" s="103">
         <v>74444</v>
       </c>
-      <c r="B29" s="116"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="43">
         <f>B2*0.2</f>
         <v>3037</v>
@@ -5879,174 +5877,174 @@
       <c r="F29" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="119" t="s">
+      <c r="I29" s="74" t="s">
         <v>75</v>
       </c>
       <c r="J29" s="18">
-        <f>J$27/($G$33*100)</f>
+        <f t="shared" ref="J29:U29" si="4">J$27/($G$33*100)</f>
         <v>11.543542970036217</v>
       </c>
       <c r="K29" s="18">
-        <f>K$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>10.417431675996045</v>
       </c>
       <c r="L29" s="18">
-        <f>L$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>9.2913203819558738</v>
       </c>
       <c r="M29" s="18">
-        <f>M$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>12.369357918999009</v>
       </c>
       <c r="N29" s="18">
-        <f>N$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>11.421053671386234</v>
       </c>
       <c r="O29" s="18">
-        <f>O$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>10.472749423773458</v>
       </c>
       <c r="P29" s="15">
-        <f>P$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>13.195172867961801</v>
       </c>
       <c r="Q29" s="15">
-        <f>Q$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>12.424675666776421</v>
       </c>
       <c r="R29" s="15">
-        <f>R$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>11.654178465591041</v>
       </c>
       <c r="S29" s="15">
-        <f>S$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>14.020987816924594</v>
       </c>
       <c r="T29" s="15">
-        <f>T$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>13.428297662166608</v>
       </c>
       <c r="U29" s="15">
-        <f>U$27/($G$33*100)</f>
+        <f t="shared" si="4"/>
         <v>12.835607507408625</v>
       </c>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="93" t="s">
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95" t="s">
+      <c r="B30" s="106"/>
+      <c r="C30" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="89"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="114"/>
       <c r="I30" s="67" t="s">
         <v>76</v>
       </c>
       <c r="J30" s="18">
-        <f>J$27/($H$33*100)</f>
+        <f t="shared" ref="J30:U30" si="5">J$27/($H$33*100)</f>
         <v>9.9513301465829453</v>
       </c>
       <c r="K30" s="18">
-        <f>K$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>8.9805445482724533</v>
       </c>
       <c r="L30" s="18">
-        <f>L$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>8.0097589499619595</v>
       </c>
       <c r="M30" s="18">
-        <f>M$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>10.663239585343971</v>
       </c>
       <c r="N30" s="18">
-        <f>N$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>9.8457359236088209</v>
       </c>
       <c r="O30" s="18">
-        <f>O$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>9.0282322618736686</v>
       </c>
       <c r="P30" s="18">
-        <f>P$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>11.375149024104999</v>
       </c>
       <c r="Q30" s="18">
-        <f>Q$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>10.71092729894519</v>
       </c>
       <c r="R30" s="18">
-        <f>R$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>10.046705573785378</v>
       </c>
       <c r="S30" s="18">
-        <f>S$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>12.087058462866027</v>
       </c>
       <c r="T30" s="18">
-        <f>T$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>11.576118674281558</v>
       </c>
       <c r="U30" s="18">
-        <f>U$27/($H$33*100)</f>
+        <f t="shared" si="5"/>
         <v>11.065178885697089</v>
       </c>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="90" t="s">
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A31" s="92"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="117">
+      <c r="B32" s="120"/>
+      <c r="C32" s="72">
         <v>209</v>
       </c>
-      <c r="D32" s="117">
+      <c r="D32" s="72">
         <v>254</v>
       </c>
-      <c r="E32" s="117">
+      <c r="E32" s="72">
         <v>299</v>
       </c>
       <c r="H32" s="39"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="90" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="90"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="18" t="str">
         <f>F33*100&amp;"%"</f>
         <v>4.1%</v>
       </c>
       <c r="D33" s="18" t="str">
-        <f t="shared" ref="D33:E33" si="3">G33*100&amp;"%"</f>
+        <f t="shared" ref="D33:E33" si="6">G33*100&amp;"%"</f>
         <v>5%</v>
       </c>
       <c r="E33" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.8%</v>
       </c>
       <c r="F33" s="18">
@@ -6059,24 +6057,24 @@
         <v>5.800000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="84" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="85" t="s">
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="40" t="s">
         <v>55</v>
       </c>
@@ -6111,20 +6109,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="111"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="18">
         <f>F33*600</f>
         <v>24.6</v>
       </c>
       <c r="E36" s="18">
-        <f t="shared" ref="E36:F36" si="4">G33*600</f>
+        <f t="shared" ref="E36:F36" si="7">G33*600</f>
         <v>30</v>
       </c>
       <c r="F36" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>34.800000000000004</v>
       </c>
       <c r="H36" s="18">
@@ -6132,11 +6130,11 @@
         <v>20.5</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" ref="I36:J36" si="5">G33*500</f>
+        <f t="shared" ref="I36:J36" si="8">G33*500</f>
         <v>25</v>
       </c>
       <c r="J36" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.000000000000004</v>
       </c>
       <c r="L36" s="18">
@@ -6144,15 +6142,15 @@
         <v>16.400000000000002</v>
       </c>
       <c r="M36" s="18">
-        <f t="shared" ref="M36:N36" si="6">G33*400</f>
+        <f t="shared" ref="M36:N36" si="9">G33*400</f>
         <v>20</v>
       </c>
       <c r="N36" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C37" s="17" t="s">
         <v>58</v>
       </c>
@@ -6161,11 +6159,11 @@
         <v>49.2</v>
       </c>
       <c r="E37" s="18">
-        <f t="shared" ref="E37:F37" si="7">E36*2</f>
+        <f t="shared" ref="E37:F37" si="10">E36*2</f>
         <v>60</v>
       </c>
       <c r="F37" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>69.600000000000009</v>
       </c>
       <c r="H37" s="18">
@@ -6195,18 +6193,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="V28:W30"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="M18:O18"/>
@@ -6223,13 +6216,18 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="V28:W30"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -6354,7 +6352,7 @@
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>계산식!$A$27:$B$27</xm:f>
@@ -6395,13 +6393,7 @@
           <x14:formula1>
             <xm:f>'닐루성유물 부옵수'!$A$16:$A$26</xm:f>
           </x14:formula1>
-          <xm:sqref>N9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C1363B0E-7AE0-4FA9-A000-A0098B01C0B9}">
-          <x14:formula1>
-            <xm:f>'닐루성유물 부옵수'!$A$16:$A$26</xm:f>
-          </x14:formula1>
-          <xm:sqref>M9</xm:sqref>
+          <xm:sqref>M9:N9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6417,7 +6409,7 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="8.796875" style="60"/>
     <col min="5" max="5" width="10.3984375" style="60" bestFit="1" customWidth="1"/>
@@ -6429,7 +6421,7 @@
     <col min="21" max="16384" width="8.796875" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
@@ -6488,7 +6480,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="60">
         <v>4780</v>
       </c>
@@ -6544,7 +6536,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="60" t="s">
         <v>41</v>
       </c>
@@ -6570,7 +6562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C4" s="60" t="s">
         <v>37</v>
       </c>
@@ -6581,7 +6573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C5" s="60" t="s">
         <v>33</v>
       </c>
@@ -6592,7 +6584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C6" s="60" t="s">
         <v>34</v>
       </c>
@@ -6602,57 +6594,57 @@
       <c r="E6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="D7" s="60" t="s">
         <v>97</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="E8" s="60" t="s">
         <v>96</v>
       </c>
       <c r="G8" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="79" t="s">
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="86" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -6664,16 +6656,16 @@
       <c r="D10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="79"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="86"/>
       <c r="B11" s="62">
         <f>닐루!B2</f>
         <v>15185</v>
@@ -6686,16 +6678,16 @@
         <f>닐루!D2</f>
         <v>729</v>
       </c>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="82" t="s">
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="89" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -6728,16 +6720,16 @@
       <c r="K12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="81"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="88"/>
       <c r="B13" s="62">
         <f>IF(닐루!B6=K1,B11*E24)+IF(닐루!C6=K1,B11*E26)</f>
         <v>4373.28</v>
@@ -6779,8 +6771,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="80" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="87" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -6814,8 +6806,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="81"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="88"/>
       <c r="B15" s="62">
         <f>B13+IF(C19=K1,B11*K2)+IF(D19=K1,B11*K2)+IF(E19=K1,B11*K2)+IF(F19=TRUE,B11*0.25)+IF(A19=TRUE,A2)+IF(닐루!M9="체%",B11*'닐루성유물 부옵수'!C17)+IF(닐루!N9="체%",B11*'닐루성유물 부옵수'!C17)</f>
         <v>40252.160000000003</v>
@@ -6857,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6870,7 +6862,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="63" t="s">
         <v>27</v>
       </c>
@@ -6896,7 +6888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="62" t="b">
         <v>1</v>
       </c>
@@ -6925,17 +6917,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="63" t="s">
         <v>98</v>
       </c>
@@ -6950,8 +6942,8 @@
       <c r="J22" s="62"/>
       <c r="K22" s="62"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="77" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="80" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="60" t="s">
@@ -6988,8 +6980,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="77"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="80"/>
       <c r="C24" s="62">
         <v>0.24</v>
       </c>
@@ -7021,8 +7013,8 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="77" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="80" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="60" t="s">
@@ -7059,8 +7051,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="77"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="80"/>
       <c r="C26" s="7">
         <v>0.28799999999999998</v>
       </c>
@@ -7092,15 +7084,15 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="68" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-    </row>
-    <row r="44" spans="11:11">
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K44" s="59"/>
     </row>
   </sheetData>
@@ -7127,7 +7119,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.8984375" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="60"/>
@@ -7136,47 +7128,47 @@
     <col min="7" max="16384" width="8.796875" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="106" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="65">
         <v>209</v>
       </c>
@@ -7194,11 +7186,11 @@
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="106" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="65">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -7228,11 +7220,11 @@
         <v>5.8%</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="104" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="62">
         <v>14</v>
       </c>
@@ -7250,11 +7242,11 @@
       <c r="I5" s="65"/>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="104" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="65">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -7284,11 +7276,11 @@
         <v>5.8%</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="62">
         <v>16</v>
       </c>
@@ -7306,11 +7298,11 @@
       <c r="I7" s="65"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="105" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="65">
         <v>5.1000000000000004E-2</v>
       </c>
@@ -7340,11 +7332,11 @@
         <v>7.3%</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="107" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="107"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="62">
         <v>4.5</v>
       </c>
@@ -7374,11 +7366,11 @@
         <v>6.5%</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="108" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="108"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="62">
         <v>16</v>
       </c>
@@ -7396,11 +7388,11 @@
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="109" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="109"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="62">
         <v>2.7</v>
       </c>
@@ -7430,11 +7422,11 @@
         <v>3.9%</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="109" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="62">
         <f>C11*2</f>
         <v>5.4</v>
@@ -7468,7 +7460,7 @@
         <v>7.8%</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="60" t="s">
         <v>66</v>
       </c>
@@ -7500,7 +7492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="59" t="s">
         <v>111</v>
       </c>
@@ -7535,7 +7527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="62" t="s">
         <v>66</v>
       </c>
@@ -7546,7 +7538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="62" t="s">
         <v>36</v>
       </c>
@@ -7558,7 +7550,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="62" t="s">
         <v>35</v>
       </c>
@@ -7570,7 +7562,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="62" t="s">
         <v>37</v>
       </c>
@@ -7582,7 +7574,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="62" t="s">
         <v>33</v>
       </c>
@@ -7594,7 +7586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="62" t="s">
         <v>34</v>
       </c>
@@ -7606,7 +7598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="62" t="s">
         <v>38</v>
       </c>
@@ -7618,7 +7610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="48" t="s">
         <v>39</v>
       </c>
@@ -7630,7 +7622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="62" t="s">
         <v>83</v>
       </c>
@@ -7642,7 +7634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="62" t="s">
         <v>97</v>
       </c>
@@ -7654,7 +7646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="62" t="s">
         <v>96</v>
       </c>
@@ -7666,37 +7658,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="93" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="88" t="s">
+      <c r="B29" s="92"/>
+      <c r="C29" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F29" s="90" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="106" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="106"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="52">
         <v>4.0999999999999995E-2</v>
       </c>
@@ -7710,11 +7702,11 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="106" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="106"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="65">
         <f>계산식!B11*C4</f>
         <v>622.58500000000004</v>
@@ -7732,11 +7724,11 @@
         <v>880.73000000000013</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="104" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="52">
         <v>4.0999999999999995E-2</v>
       </c>
@@ -7750,11 +7742,11 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="104" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="104"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="65">
         <f>계산식!$C$11*C6</f>
         <v>30.34</v>
@@ -7772,11 +7764,11 @@
         <v>42.920000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="105" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="105"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="52">
         <v>5.1000000000000004E-2</v>
       </c>
@@ -7790,11 +7782,11 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="105" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="65">
         <f>계산식!$D$11*C8</f>
         <v>37.179000000000002</v>
@@ -7812,39 +7804,39 @@
         <v>53.216999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="93" t="str">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="92" t="str">
         <f>"깡옵"&amp;계산기!B26&amp;"개"</f>
         <v>깡옵13개</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="88" t="s">
+      <c r="B39" s="92"/>
+      <c r="C39" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="88" t="s">
+      <c r="F39" s="90" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="106" t="str">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="91" t="str">
         <f>"깡 "&amp;계산기!B19</f>
         <v>깡 체력</v>
       </c>
-      <c r="B41" s="106"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="55">
         <f>IF(계산기!$B$19=$F$14,계산기!$B$26*C3,IF(계산기!$B$19=$G$14,계산기!$B$26*C5,IF(계산기!$B$19=$H$14,계산기!$B$26*C7)))</f>
         <v>2717</v>
@@ -7862,12 +7854,12 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="106" t="str">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="91" t="str">
         <f>"뺀 "&amp;계산기!B19</f>
         <v>뺀 체력</v>
       </c>
-      <c r="B42" s="106"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="55">
         <f>계산기!$B$23-C41</f>
         <v>10018.434999999998</v>
@@ -7887,6 +7879,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="A41:B41"/>
@@ -7897,30 +7913,6 @@
     <mergeCell ref="A39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -7938,13 +7930,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.8984375" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>102</v>
       </c>
@@ -7955,7 +7947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="42" t="s">
         <v>82</v>
       </c>
@@ -7966,7 +7958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="42" t="s">
         <v>81</v>
       </c>
@@ -7977,56 +7969,56 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="42" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="42" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="42" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="42" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="42" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="42" t="s">
         <v>94</v>
       </c>
